--- a/Data/Ready_data/Environmental_distances.xlsx
+++ b/Data/Ready_data/Environmental_distances.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tere\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Road-kills-amphibian-reptile\Data\Ready_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45FAA8-1B21-4228-99D1-73D2A7FE65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E652DEAB-9F22-4EDB-B65C-2F4C187079F4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Distanccia a" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Distanccia a'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,23 +38,23 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5D69DA50-226C-4454-A025-F3D33E820434}" keepAlive="1" name="Consulta - Agricola" description="Conexión a la consulta 'Agricola' en el libro." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Consulta - Agricola" description="Conexión a la consulta 'Agricola' en el libro." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Agricola;Extended Properties=&quot;&quot;" command="SELECT * FROM [Agricola]"/>
   </connection>
-  <connection id="2" xr16:uid="{2B7FD8C7-8555-4048-A296-CAA446368E91}" keepAlive="1" name="Consulta - Altitud" description="Conexión a la consulta 'Altitud' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Consulta - Altitud" description="Conexión a la consulta 'Altitud' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Altitud;Extended Properties=&quot;&quot;" command="SELECT * FROM [Altitud]"/>
   </connection>
-  <connection id="3" xr16:uid="{B1C2007F-C4F5-4E0A-B9DB-81109B43E08A}" keepAlive="1" name="Consulta - Electricos" description="Conexión a la consulta 'Electricos' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" keepAlive="1" name="Consulta - Electricos" description="Conexión a la consulta 'Electricos' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Electricos;Extended Properties=&quot;&quot;" command="SELECT * FROM [Electricos]"/>
   </connection>
-  <connection id="4" xr16:uid="{88CD7DC8-565D-4F82-BD09-CBC8212B5154}" keepAlive="1" name="Consulta - Pendiente" description="Conexión a la consulta 'Pendiente' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" keepAlive="1" name="Consulta - Pendiente" description="Conexión a la consulta 'Pendiente' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Pendiente;Extended Properties=&quot;&quot;" command="SELECT * FROM [Pendiente]"/>
   </connection>
-  <connection id="5" xr16:uid="{C652543A-8C62-4BDD-B149-9C8366BB91BE}" keepAlive="1" name="Consulta - rios" description="Conexión a la consulta 'rios' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" keepAlive="1" name="Consulta - rios" description="Conexión a la consulta 'rios' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=rios;Extended Properties=&quot;&quot;" command="SELECT * FROM [rios]"/>
   </connection>
-  <connection id="6" xr16:uid="{56EE91B1-6D37-4963-A561-BB03FDA75318}" keepAlive="1" name="Consulta - Urbanos" description="Conexión a la consulta 'Urbanos' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" keepAlive="1" name="Consulta - Urbanos" description="Conexión a la consulta 'Urbanos' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Urbanos;Extended Properties=&quot;&quot;" command="SELECT * FROM [Urbanos]"/>
   </connection>
 </connections>
@@ -64,37 +63,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Transect</t>
-  </si>
-  <si>
-    <t>Subtransec</t>
-  </si>
-  <si>
     <t>Cuadrante</t>
   </si>
   <si>
     <t>ALTITUD</t>
   </si>
   <si>
-    <t>ELECTRICOS</t>
+    <t>Subtransecto</t>
   </si>
   <si>
-    <t>PENDIENTE</t>
+    <t>Transecto</t>
   </si>
   <si>
-    <t>RIOS</t>
+    <t>DIST_ELECTRICOS</t>
   </si>
   <si>
-    <t>AGRICOLA</t>
+    <t>DIST_PENDIENTE</t>
   </si>
   <si>
-    <t>URBANZACION</t>
+    <t>DIST_RIOS</t>
+  </si>
+  <si>
+    <t>DIST_AGRICOLA</t>
+  </si>
+  <si>
+    <t>DIST_URBANIZACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,27 +438,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259B1601-3311-4BAF-A935-98B8D5AB533F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -477,7 +476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,7 +505,7 @@
         <v>134.16407775900001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -535,7 +534,7 @@
         <v>161.55494689899999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -564,7 +563,7 @@
         <v>189.73666381800001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -593,7 +592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -622,7 +621,7 @@
         <v>174.92855835</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -651,7 +650,7 @@
         <v>201.24612426799999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -680,7 +679,7 @@
         <v>169.70562744099999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -709,7 +708,7 @@
         <v>192.09373474099999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -738,7 +737,7 @@
         <v>216.333084106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -767,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -796,7 +795,7 @@
         <v>42.4264068604</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -825,7 +824,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -854,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -883,7 +882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -912,7 +911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -941,7 +940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -970,7 +969,7 @@
         <v>42.4264068604</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -999,7 +998,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>123.69316864</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>94.868331909199995</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>134.16407775900001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>108.166542053</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>84.852813720699999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>161.55494689899999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>189.73666381800001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>152.970581055</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>182.482879639</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>212.13203430199999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>284.604980469</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>313.20919799799998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>342.05261230500003</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>295.46572875999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>323.10989379900002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>351.14099121100003</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>308.868896484</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>335.41018676800002</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>362.49139404300001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>42.4264068604</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>94.868331909199995</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>42.4264068604</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>94.868331909199995</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>108.166542053</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>84.852813720699999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>94.868331909199995</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>67.082038879400002</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>42.4264068604</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>216.333084106</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>212.13203430199999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>182.482879639</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>228.473190308</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>212.13203430199999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>212.13203430199999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>182.482879639</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>474.34164428700001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>484.66482543900003</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>469.57427978499999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>502.89163208000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>512.64019775400004</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>496.58834838899998</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>531.60137939499998</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>540.83270263700001</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>523.92749023399995</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>560.44622802699996</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>569.20996093799999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>579.39624023399995</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>589.40649414100005</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>597.74578857400002</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>607.45367431600005</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>618.46582031299999</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>626.41839599599996</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>635.68859863299997</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>662.72167968799999</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>666.10809326200001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>670.82037353500004</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>692.60375976600005</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>695.84478759800004</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>700.35705566399997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>722.49566650400004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>725.60321044900002</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>729.93151855500003</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>780.57672119100005</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>782.30426025400004</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>785.17510986299999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>810.55535888700001</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>812.21917724599996</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>814.98468017599998</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>840.53552246100003</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>842.140136719</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>844.80767822300004</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>335.41018676800002</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>349.85711669900002</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>366.19665527299998</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>362.49139404300001</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>375.898925781</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>391.15213012700002</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>402.49224853499999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>416.77331543000003</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>870.517089844</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>870.517089844</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>900.49987793000003</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>900.49987793000003</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>930.48376464800003</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>930.48376464800003</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>990.45446777300003</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>990.45446777300003</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>1020.4411010699999</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>1020.4411010699999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>1050.4284668</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>1050.4284668</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>1110.40527344</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>1110.40527344</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>1140.3946533200001</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>1140.3946533200001</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>1170.3845214800001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>1170.3845214800001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>2044.6270752</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>2033.3715820299999</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>2022.49841309</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>2072.3898925799999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>2061.2858886700001</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>2050.5607910200001</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>2089.2583007799999</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>2078.6774902299999</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>2068.4777832</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>2163.33081055</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>2153.5319824200001</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>2144.1081543</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>2191.64331055</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>2181.9716796900002</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>2172.6711425799999</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>2210.4523925799999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>2201.2724609400002</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>2276.83984375</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>2267.5317382799999</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>2229.9104003900002</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>2305.3198242200001</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>2296.1271972700001</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>2258.5837402299999</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>2333.8381347700001</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>2324.7580566400002</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>2287.2910156299999</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>2400.1875</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>2390.9831543</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>2353.4230957</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>2428.7033691400002</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>2419.6074218799999</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>2382.1208496099998</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>2457.2546386700001</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>2448.2646484400002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>2410.8505859400002</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>1922.3422851600001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>1910.83752441</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>1899.7368164100001</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>1938.6593017600001</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>1927.7188720700001</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>1977.72595215</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>1966.5451660199999</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>1955.76074219</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>2495.0551757799999</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>2485.83984375</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>2476.9538574200001</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>2523.5688476599998</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>2514.45825195</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>2505.6735839799999</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>2552.1166992200001</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>2543.1083984400002</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>2534.4230957</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>2627.86987305</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>2618.4345703099998</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>2609.3103027299999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>2656.3132324200001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>2646.9794921900002</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>2637.9538574200001</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>2684.7905273400002</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>2675.5559082</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>2666.6271972700001</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>2601.8840332</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>2591.3125</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>2581.0463867200001</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>2629.9240722700001</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>2619.4655761700001</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>2609.3103027299999</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>2658.0068359400002</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>2647.6594238299999</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>2637.6125488299999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>3998.11206055</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>3984.6958007799999</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>3971.4606933599998</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>4024.9223632799999</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>4011.5957031299999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>3998.4497070299999</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>4051.77734375</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>4038.5393066400002</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>4025.4814453099998</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>4132.2753906300004</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>4118.8588867199996</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>4105.6181640599998</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>4159.0864257800004</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>4145.7568359400002</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>4132.6020507800004</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>4185.9409179699996</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>4172.6967773400002</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>4159.6274414099998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>4253.0224609400002</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>4239.7758789099998</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>4226.7006835900002</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>4279.9184570300004</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>4266.7553710900002</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>4253.7631835900002</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>4306.8549804699996</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>4293.7744140599998</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>4280.8642578099998</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>4387.4936523400002</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>4373.8310546900002</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>4360.3325195300004</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>4414.1816406300004</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>4400.6020507800004</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>4387.1860351599998</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>4440.9121093800004</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>4427.4145507800004</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>4414.0795898400002</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>3877.43481445</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>3864.2980957</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>3851.3503418</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>3904.3820800799999</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>3891.3364257799999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>3878.4790039099998</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>3931.3737793</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>3918.41796875</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>3905.6496582</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>4482.3652343800004</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>4468.3891601599998</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>4454.5708007800004</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>4508.8911132800004</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>4494.9970703099998</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>4481.2607421900002</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>4535.4604492199996</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>4521.6479492199996</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>4507.9926757800004</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>4539.8237304699996</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>4525.2294921900002</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>4510.7871093800004</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>4566.015625</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>4551.5053710900002</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>4537.1464843800004</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>4592.2543945300004</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>4577.8271484400002</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>4563.5512695300004</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>4651.4511718800004</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>4636.4316406300004</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>4621.5581054699996</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>4677.4033203099998</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>4662.4672851599998</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>4647.6767578099998</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>4703.4028320300004</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>4688.5498046900002</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>4673.8422851599998</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>5</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>4890.0917968800004</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>5</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>4872.2993164099998</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>5</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>4854.6264648400002</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>5</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>4914.234375</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>4896.5292968800004</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>5</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>4878.9443359400002</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>5</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>4938.4409179699996</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>5</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>4920.8232421900002</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>4903.3251953099998</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>5</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>4849.3403320300004</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>4830.8383789099998</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>4812.4526367199996</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>4872.9458007800004</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>4854.5341796900002</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>4836.23828125</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>4896.62109375</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>5</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>4878.2988281300004</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5</v>
       </c>
@@ -9351,7 +9350,7 @@
         <v>4860.0927734400002</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>5</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>4812.9199218800004</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>4770.66015625</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>4751.4736328099998</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>4835.9589843800004</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>4793.71484375</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>4774.6206054699996</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>5</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>4859.07421875</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>4816.8452148400002</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>4797.8432617199996</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5</v>
       </c>
@@ -9641,7 +9640,7 @@
         <v>4761.0292968800004</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>4718.6860351599998</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>5</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>4698.9042968800004</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>5</v>
       </c>
@@ -9728,7 +9727,7 @@
         <v>4783.5654296900002</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>4741.2338867199996</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>4721.5463867199996</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>4806.18359375</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>4763.8637695300004</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>4744.2700195300004</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>5</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>4969.59765625</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>5</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>4952.2719726599998</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>5</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>4935.0683593800004</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>4994.0766601599998</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>4976.8364257800004</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>5</v>
       </c>
@@ -10047,7 +10046,7 @@
         <v>4959.7177734400002</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>5</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>5018.6152343800004</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>5</v>
       </c>
@@ -10105,7 +10104,7 @@
         <v>5001.4599609400002</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>5</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>4984.42578125</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>4797.1865234400002</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>5</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>4776.7875976599998</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>5</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>4756.4902343800004</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>4819.1806640599998</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>4798.875</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>5</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>4778.6713867199996</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>5</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>4841.2602539099998</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>5</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>4821.0473632800004</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>4800.9375</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>5</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>4922.1948242199996</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>5</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>4901.3979492199996</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5</v>
       </c>
@@ -10482,7 +10481,7 @@
         <v>4880.6967773400002</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>5</v>
       </c>
@@ -10511,7 +10510,7 @@
         <v>4943.8144531300004</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>5</v>
       </c>
@@ -10540,7 +10539,7 @@
         <v>4923.1088867199996</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>5</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>4902.4995117199996</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>4965.5209960900002</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>5</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>4944.90625</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>4924.3881835900002</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5</v>
       </c>
@@ -10685,7 +10684,7 @@
         <v>5048.9208984400002</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>5</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>5027.9321289099998</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>5</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>5007.03515625</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>5</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>5070.3549804699996</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>5049.4555664099998</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>5028.6479492199996</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>5</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>5091.8759765599998</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>5</v>
       </c>
@@ -10888,7 +10887,7 @@
         <v>5071.0649414099998</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5</v>
       </c>
@@ -10923,12 +10922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906FB6C6-38DF-4D2A-81F8-D08855A3EF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
